--- a/F_dataset/ChEMBL/FLT3/FLT3_preprocessing/FLT3_g1.xlsx
+++ b/F_dataset/ChEMBL/FLT3/FLT3_preprocessing/FLT3_g1.xlsx
@@ -668,7 +668,7 @@
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002A7F4DA9A10&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000016BDB2959A0&gt;</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
@@ -785,7 +785,7 @@
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002A7F4DA9A80&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000016BDB295A10&gt;</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
@@ -898,7 +898,7 @@
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002A7F4DA9AF0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000016BDB295A80&gt;</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
@@ -1007,7 +1007,7 @@
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002A7F4DA9C40&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000016BDB295AF0&gt;</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
@@ -1120,7 +1120,7 @@
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002A7F4DA9CB0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000016BDB295B60&gt;</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
@@ -1237,7 +1237,7 @@
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002A7F4DA9D90&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000016BDB295CB0&gt;</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
@@ -1346,7 +1346,7 @@
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002A7F4DA9E00&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000016BDB295D20&gt;</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002A7F4DA9EE0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000016BDB295E70&gt;</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
@@ -1572,7 +1572,7 @@
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002A7F4DA9FC0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000016BDB295F50&gt;</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
@@ -1685,7 +1685,7 @@
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002A7F4DAA030&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000016BDB295FC0&gt;</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
@@ -1798,7 +1798,7 @@
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002A7F4DAA0A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000016BDB296030&gt;</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
@@ -1911,7 +1911,7 @@
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002A7F4DAA110&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000016BDB2960A0&gt;</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
@@ -2028,7 +2028,7 @@
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002A7F4DAA180&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000016BDB296110&gt;</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
@@ -2141,7 +2141,7 @@
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002A7F4DAA1F0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000016BDB296180&gt;</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
@@ -2254,7 +2254,7 @@
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002A7F4DAA260&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000016BDB2961F0&gt;</t>
         </is>
       </c>
       <c r="Y16" t="inlineStr">
@@ -2367,7 +2367,7 @@
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002A7F4DAA340&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000016BDB2962D0&gt;</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
@@ -2480,7 +2480,7 @@
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002A7F4DAA3B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000016BDB296340&gt;</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
@@ -2593,7 +2593,7 @@
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002A7F4DAA420&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000016BDB2963B0&gt;</t>
         </is>
       </c>
       <c r="Y19" t="inlineStr">
@@ -2706,7 +2706,7 @@
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002A7F4DAA490&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000016BDB296420&gt;</t>
         </is>
       </c>
       <c r="Y20" t="inlineStr">
@@ -2819,7 +2819,7 @@
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002A7F4DAA500&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000016BDB296490&gt;</t>
         </is>
       </c>
       <c r="Y21" t="inlineStr">
@@ -2932,7 +2932,7 @@
       </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002A7F4DAA5E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000016BDB296500&gt;</t>
         </is>
       </c>
       <c r="Y22" t="inlineStr">
@@ -3045,7 +3045,7 @@
       </c>
       <c r="X23" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002A7F4DAA650&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000016BDB296570&gt;</t>
         </is>
       </c>
       <c r="Y23" t="inlineStr">
@@ -3158,7 +3158,7 @@
       </c>
       <c r="X24" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002A7F4DAA6C0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000016BDB296650&gt;</t>
         </is>
       </c>
       <c r="Y24" t="inlineStr">
@@ -3267,7 +3267,7 @@
       </c>
       <c r="X25" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002A7F4DAA730&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000016BDB2966C0&gt;</t>
         </is>
       </c>
       <c r="Y25" t="inlineStr">
@@ -3376,7 +3376,7 @@
       </c>
       <c r="X26" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002A7F4DAA7A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000016BDB296730&gt;</t>
         </is>
       </c>
       <c r="Y26" t="inlineStr">
@@ -3489,7 +3489,7 @@
       </c>
       <c r="X27" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002A7F4DAA810&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000016BDB2967A0&gt;</t>
         </is>
       </c>
       <c r="Y27" t="inlineStr">
@@ -3602,7 +3602,7 @@
       </c>
       <c r="X28" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002A7F4DAA880&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000016BDB296810&gt;</t>
         </is>
       </c>
       <c r="Y28" t="inlineStr">
@@ -3715,7 +3715,7 @@
       </c>
       <c r="X29" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002A7F4DAA8F0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000016BDB296880&gt;</t>
         </is>
       </c>
       <c r="Y29" t="inlineStr">
@@ -3828,7 +3828,7 @@
       </c>
       <c r="X30" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002A7F4DAA9D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000016BDB2968F0&gt;</t>
         </is>
       </c>
       <c r="Y30" t="inlineStr">
@@ -3941,7 +3941,7 @@
       </c>
       <c r="X31" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002A7F4DAAA40&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000016BDB296960&gt;</t>
         </is>
       </c>
       <c r="Y31" t="inlineStr">
@@ -4054,7 +4054,7 @@
       </c>
       <c r="X32" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002A7F4DAAAB0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000016BDB296A40&gt;</t>
         </is>
       </c>
       <c r="Y32" t="inlineStr">
@@ -4163,7 +4163,7 @@
       </c>
       <c r="X33" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002A7F4DAAB90&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000016BDB296AB0&gt;</t>
         </is>
       </c>
       <c r="Y33" t="inlineStr">
@@ -4276,7 +4276,7 @@
       </c>
       <c r="X34" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002A7F4DAAC70&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000016BDB296B20&gt;</t>
         </is>
       </c>
       <c r="Y34" t="inlineStr">
@@ -4389,7 +4389,7 @@
       </c>
       <c r="X35" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002A7F4DAACE0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000016BDB296C00&gt;</t>
         </is>
       </c>
       <c r="Y35" t="inlineStr">
@@ -4506,7 +4506,7 @@
       </c>
       <c r="X36" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002A7F4DAAD50&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000016BDB296CE0&gt;</t>
         </is>
       </c>
       <c r="Y36" t="inlineStr">
@@ -4619,7 +4619,7 @@
       </c>
       <c r="X37" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002A7F4DAADC0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000016BDB296D50&gt;</t>
         </is>
       </c>
       <c r="Y37" t="inlineStr">
@@ -4732,7 +4732,7 @@
       </c>
       <c r="X38" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002A7F4DAAE30&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000016BDB296DC0&gt;</t>
         </is>
       </c>
       <c r="Y38" t="inlineStr">
@@ -4845,7 +4845,7 @@
       </c>
       <c r="X39" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002A7F4DAAEA0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000016BDB296E30&gt;</t>
         </is>
       </c>
       <c r="Y39" t="inlineStr">
@@ -4958,7 +4958,7 @@
       </c>
       <c r="X40" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002A7F4DAAF10&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000016BDB296EA0&gt;</t>
         </is>
       </c>
       <c r="Y40" t="inlineStr">
@@ -5075,7 +5075,7 @@
       </c>
       <c r="X41" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002A7F4DAAF80&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000016BDB296F10&gt;</t>
         </is>
       </c>
       <c r="Y41" t="inlineStr">
@@ -5188,7 +5188,7 @@
       </c>
       <c r="X42" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002A7F4DAAFF0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000016BDB296F80&gt;</t>
         </is>
       </c>
       <c r="Y42" t="inlineStr">
@@ -5301,7 +5301,7 @@
       </c>
       <c r="X43" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002A7F4DAB060&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000016BDB296FF0&gt;</t>
         </is>
       </c>
       <c r="Y43" t="inlineStr">
@@ -5414,7 +5414,7 @@
       </c>
       <c r="X44" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002A7F4DAB0D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000016BDB297060&gt;</t>
         </is>
       </c>
       <c r="Y44" t="inlineStr">
@@ -5527,7 +5527,7 @@
       </c>
       <c r="X45" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002A7F4DAB140&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000016BDB2970D0&gt;</t>
         </is>
       </c>
       <c r="Y45" t="inlineStr">
@@ -5640,7 +5640,7 @@
       </c>
       <c r="X46" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002A7F4DAB1B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000016BDB297140&gt;</t>
         </is>
       </c>
       <c r="Y46" t="inlineStr">
@@ -5753,7 +5753,7 @@
       </c>
       <c r="X47" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002A7F4DAB220&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000016BDB2971B0&gt;</t>
         </is>
       </c>
       <c r="Y47" t="inlineStr">
@@ -5866,7 +5866,7 @@
       </c>
       <c r="X48" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002A7F4DAB290&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000016BDB297220&gt;</t>
         </is>
       </c>
       <c r="Y48" t="inlineStr">
@@ -5979,7 +5979,7 @@
       </c>
       <c r="X49" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002A7F4DAB300&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000016BDB297290&gt;</t>
         </is>
       </c>
       <c r="Y49" t="inlineStr">
@@ -6092,7 +6092,7 @@
       </c>
       <c r="X50" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002A7F4DAB370&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000016BDB297300&gt;</t>
         </is>
       </c>
       <c r="Y50" t="inlineStr">
@@ -6205,7 +6205,7 @@
       </c>
       <c r="X51" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002A7F4DAB3E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000016BDB297370&gt;</t>
         </is>
       </c>
       <c r="Y51" t="inlineStr">
